--- a/docs/verbs.xlsx
+++ b/docs/verbs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
   <si>
     <t>abholen</t>
   </si>
@@ -154,6 +154,111 @@
   </si>
   <si>
     <t>Akkusativ</t>
+  </si>
+  <si>
+    <t>anworten</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>gefallen</t>
+  </si>
+  <si>
+    <t>gehoeren</t>
+  </si>
+  <si>
+    <t>glauben</t>
+  </si>
+  <si>
+    <t>gratulieren</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>vertrauen</t>
+  </si>
+  <si>
+    <t>zuhoeren</t>
+  </si>
+  <si>
+    <t>gehorchen</t>
+  </si>
+  <si>
+    <t>Es geht mir gut</t>
+  </si>
+  <si>
+    <t>Es steht mir</t>
+  </si>
+  <si>
+    <t>Es passt mir</t>
+  </si>
+  <si>
+    <t>Es tut mir leid</t>
+  </si>
+  <si>
+    <t>was fehlt dir?</t>
+  </si>
+  <si>
+    <t>Dative</t>
+  </si>
+  <si>
+    <t>bringen</t>
+  </si>
+  <si>
+    <t>erlauben</t>
+  </si>
+  <si>
+    <t>erzaehlen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>verbieten</t>
+  </si>
+  <si>
+    <t>versprechen</t>
+  </si>
+  <si>
+    <t>wegnehmen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>Dative + Akkusativ</t>
   </si>
 </sst>
 </file>
@@ -492,15 +597,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B46"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -869,6 +975,270 @@
       </c>
       <c r="B46" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/docs/verbs.xlsx
+++ b/docs/verbs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="16260" windowHeight="5850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1205">
   <si>
     <t>abholen</t>
   </si>
@@ -259,13 +259,3560 @@
   </si>
   <si>
     <t>Dative + Akkusativ</t>
+  </si>
+  <si>
+    <t>beginnen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>brechen</t>
+  </si>
+  <si>
+    <t>frieren</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALT 0223   =  ß
+ALT 0228   =  ä
+ALT 0246   =  ö
+ALT 0252   =  ü
+ALT 0196   =  Ä
+ALT 0214   =  Ö
+ALT 0220   =  Ü
+</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>riechen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>Schneiden</t>
+  </si>
+  <si>
+    <t>schreien</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>ψήνω</t>
+  </si>
+  <si>
+    <t>ξεκινάω</t>
+  </si>
+  <si>
+    <t>λαμβάνω</t>
+  </si>
+  <si>
+    <t>προσφέρω</t>
+  </si>
+  <si>
+    <t>παρακαλάω</t>
+  </si>
+  <si>
+    <t>καίω</t>
+  </si>
+  <si>
+    <t>φέρνω</t>
+  </si>
+  <si>
+    <t>παγώνω</t>
+  </si>
+  <si>
+    <t>κερδίζω</t>
+  </si>
+  <si>
+    <t>υποφέρω</t>
+  </si>
+  <si>
+    <t>δανείζω</t>
+  </si>
+  <si>
+    <t>κοίτομαι</t>
+  </si>
+  <si>
+    <t>ψεύδομαι</t>
+  </si>
+  <si>
+    <t>παίρνω</t>
+  </si>
+  <si>
+    <t>μυρίζω</t>
+  </si>
+  <si>
+    <t>κοιμάμαι</t>
+  </si>
+  <si>
+    <t>κλείνω</t>
+  </si>
+  <si>
+    <t>κόβω</t>
+  </si>
+  <si>
+    <t>κάθομαι</t>
+  </si>
+  <si>
+    <t>ουρλιάζω</t>
+  </si>
+  <si>
+    <t>πλένω</t>
+  </si>
+  <si>
+    <t>hat gabacken</t>
+  </si>
+  <si>
+    <t>hat begonnen</t>
+  </si>
+  <si>
+    <t>hat bekommen</t>
+  </si>
+  <si>
+    <t>hat gebeten</t>
+  </si>
+  <si>
+    <t>hat geboten</t>
+  </si>
+  <si>
+    <t>hat gebrochen</t>
+  </si>
+  <si>
+    <t>hat gebracht</t>
+  </si>
+  <si>
+    <t>hat gefriren</t>
+  </si>
+  <si>
+    <t>hat gewonnen</t>
+  </si>
+  <si>
+    <t>hat gelitten</t>
+  </si>
+  <si>
+    <t>hat geliehen</t>
+  </si>
+  <si>
+    <t>hat gelegen</t>
+  </si>
+  <si>
+    <t>hat gelogen</t>
+  </si>
+  <si>
+    <t>hat genommen</t>
+  </si>
+  <si>
+    <t>hat geroichen</t>
+  </si>
+  <si>
+    <t>hat geschlofen</t>
+  </si>
+  <si>
+    <t>hat geschlossen</t>
+  </si>
+  <si>
+    <t>hat geschnitten</t>
+  </si>
+  <si>
+    <t>hat geschrien</t>
+  </si>
+  <si>
+    <t>hat gesessen</t>
+  </si>
+  <si>
+    <t>hat gewaschen</t>
+  </si>
+  <si>
+    <t>Infinitive</t>
+  </si>
+  <si>
+    <t>Present 2, 3 sg.</t>
+  </si>
+  <si>
+    <t>Preterite 3 sg.</t>
+  </si>
+  <si>
+    <t>Past Participle</t>
+  </si>
+  <si>
+    <t>bäckst/bäckt</t>
+  </si>
+  <si>
+    <t>backte/buk</t>
+  </si>
+  <si>
+    <t>gebacken</t>
+  </si>
+  <si>
+    <t>'bake'</t>
+  </si>
+  <si>
+    <t>backte</t>
+  </si>
+  <si>
+    <t>gebackt</t>
+  </si>
+  <si>
+    <t>'cake'</t>
+  </si>
+  <si>
+    <t>befehlen</t>
+  </si>
+  <si>
+    <t>befiehlst/befieht</t>
+  </si>
+  <si>
+    <t>befahl</t>
+  </si>
+  <si>
+    <t>befohlen</t>
+  </si>
+  <si>
+    <t>'command'</t>
+  </si>
+  <si>
+    <t>befleißen+</t>
+  </si>
+  <si>
+    <t>befleißt/befleißt</t>
+  </si>
+  <si>
+    <t>befliß</t>
+  </si>
+  <si>
+    <t>beflissen</t>
+  </si>
+  <si>
+    <t>'take pains'</t>
+  </si>
+  <si>
+    <t>beginnst/beginnt</t>
+  </si>
+  <si>
+    <t>begann</t>
+  </si>
+  <si>
+    <t>begonnen</t>
+  </si>
+  <si>
+    <t>'begin'</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>beißt/beißt</t>
+  </si>
+  <si>
+    <t>biß</t>
+  </si>
+  <si>
+    <t>gebissen</t>
+  </si>
+  <si>
+    <t>'bite'</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>birgst/birgt</t>
+  </si>
+  <si>
+    <t>barg</t>
+  </si>
+  <si>
+    <t>geborgen</t>
+  </si>
+  <si>
+    <t>'rescue'</t>
+  </si>
+  <si>
+    <t>bersten*</t>
+  </si>
+  <si>
+    <t>birst/birst</t>
+  </si>
+  <si>
+    <t>barst</t>
+  </si>
+  <si>
+    <t>geborsten</t>
+  </si>
+  <si>
+    <t>'burst'</t>
+  </si>
+  <si>
+    <t>bescheißen*</t>
+  </si>
+  <si>
+    <t>bescheißt/bescheißt</t>
+  </si>
+  <si>
+    <t>beschiß</t>
+  </si>
+  <si>
+    <t>beschissen</t>
+  </si>
+  <si>
+    <t>'cheat'</t>
+  </si>
+  <si>
+    <t>bewegen</t>
+  </si>
+  <si>
+    <t>bewegst/bewegt</t>
+  </si>
+  <si>
+    <t>bewog</t>
+  </si>
+  <si>
+    <t>bewogen</t>
+  </si>
+  <si>
+    <t>'induce'</t>
+  </si>
+  <si>
+    <t>bewegt</t>
+  </si>
+  <si>
+    <t>'move'</t>
+  </si>
+  <si>
+    <t>biegen (*)</t>
+  </si>
+  <si>
+    <t>biegst/biegt</t>
+  </si>
+  <si>
+    <t>bog</t>
+  </si>
+  <si>
+    <t>gebogen</t>
+  </si>
+  <si>
+    <t>'bend'</t>
+  </si>
+  <si>
+    <t>bietst/bietet</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>geboten</t>
+  </si>
+  <si>
+    <t>'offer'</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>bindest/bindet</t>
+  </si>
+  <si>
+    <t>band</t>
+  </si>
+  <si>
+    <t>gebunden</t>
+  </si>
+  <si>
+    <t>'bind'</t>
+  </si>
+  <si>
+    <t>bittest/bittet</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>gebeten</t>
+  </si>
+  <si>
+    <t>'request'</t>
+  </si>
+  <si>
+    <t>blasen</t>
+  </si>
+  <si>
+    <t>bläst/bläst</t>
+  </si>
+  <si>
+    <t>blies</t>
+  </si>
+  <si>
+    <t>geblasen</t>
+  </si>
+  <si>
+    <t>'blow'</t>
+  </si>
+  <si>
+    <t>bleiben*</t>
+  </si>
+  <si>
+    <t>bleibst/bleibt</t>
+  </si>
+  <si>
+    <t>blieb</t>
+  </si>
+  <si>
+    <t>geblieben</t>
+  </si>
+  <si>
+    <t>'remain'</t>
+  </si>
+  <si>
+    <t>bleichen*+</t>
+  </si>
+  <si>
+    <t>bleichst/bleicht</t>
+  </si>
+  <si>
+    <t>bleichte</t>
+  </si>
+  <si>
+    <t>geblichen</t>
+  </si>
+  <si>
+    <t>'fade'</t>
+  </si>
+  <si>
+    <t>gebleicht</t>
+  </si>
+  <si>
+    <t>'bleach'</t>
+  </si>
+  <si>
+    <t>braten</t>
+  </si>
+  <si>
+    <t>brätst/brät</t>
+  </si>
+  <si>
+    <t>briet</t>
+  </si>
+  <si>
+    <t>gebraten</t>
+  </si>
+  <si>
+    <t>'roast'</t>
+  </si>
+  <si>
+    <t>brechen (*)</t>
+  </si>
+  <si>
+    <t>brichst/bricht</t>
+  </si>
+  <si>
+    <t>brach</t>
+  </si>
+  <si>
+    <t>gebrochen</t>
+  </si>
+  <si>
+    <t>'break'</t>
+  </si>
+  <si>
+    <t>brennen</t>
+  </si>
+  <si>
+    <t>brennst/brennt</t>
+  </si>
+  <si>
+    <t>brannte</t>
+  </si>
+  <si>
+    <t>gebrannt</t>
+  </si>
+  <si>
+    <t>'burn'</t>
+  </si>
+  <si>
+    <t>bringst/bringt</t>
+  </si>
+  <si>
+    <t>brachte</t>
+  </si>
+  <si>
+    <t>gebracht</t>
+  </si>
+  <si>
+    <t>'bring'</t>
+  </si>
+  <si>
+    <t>denken</t>
+  </si>
+  <si>
+    <t>denkst/denkt</t>
+  </si>
+  <si>
+    <t>dachte</t>
+  </si>
+  <si>
+    <t>gedacht</t>
+  </si>
+  <si>
+    <t>'think'</t>
+  </si>
+  <si>
+    <t>dingen</t>
+  </si>
+  <si>
+    <t>dingst/dingt</t>
+  </si>
+  <si>
+    <t>dingte</t>
+  </si>
+  <si>
+    <t>gedungen</t>
+  </si>
+  <si>
+    <t>'hire'</t>
+  </si>
+  <si>
+    <r>
+      <t>Rarely</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>dang</t>
+  </si>
+  <si>
+    <t>gedingt</t>
+  </si>
+  <si>
+    <t>dreschen</t>
+  </si>
+  <si>
+    <t>drischst/drischt</t>
+  </si>
+  <si>
+    <t>drasch</t>
+  </si>
+  <si>
+    <t>gedroschen</t>
+  </si>
+  <si>
+    <t>'thresh'</t>
+  </si>
+  <si>
+    <t>dringen (*)</t>
+  </si>
+  <si>
+    <t>dringst/dringt</t>
+  </si>
+  <si>
+    <t>drang</t>
+  </si>
+  <si>
+    <t>gedrungen</t>
+  </si>
+  <si>
+    <t>'penetrate'</t>
+  </si>
+  <si>
+    <t>dünken</t>
+  </si>
+  <si>
+    <t>dünkst/dünkt</t>
+  </si>
+  <si>
+    <t>dünkte</t>
+  </si>
+  <si>
+    <t>gedünkt</t>
+  </si>
+  <si>
+    <t>'seem'</t>
+  </si>
+  <si>
+    <r>
+      <t>Older</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>deuchst/deucht</t>
+  </si>
+  <si>
+    <t>deuchte</t>
+  </si>
+  <si>
+    <t>gedeucht</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>darf/darfst/darf</t>
+  </si>
+  <si>
+    <t>durfte</t>
+  </si>
+  <si>
+    <t>gedurft</t>
+  </si>
+  <si>
+    <t>'be allowed'</t>
+  </si>
+  <si>
+    <t>empfehlen</t>
+  </si>
+  <si>
+    <t>empfiehlst/empfiehlt</t>
+  </si>
+  <si>
+    <t>empfahl</t>
+  </si>
+  <si>
+    <t>empfohlen</t>
+  </si>
+  <si>
+    <t>'recommend'</t>
+  </si>
+  <si>
+    <t>erbleichen*</t>
+  </si>
+  <si>
+    <t>erbleichst/erbleicht</t>
+  </si>
+  <si>
+    <t>erbleichte</t>
+  </si>
+  <si>
+    <t>erblichen</t>
+  </si>
+  <si>
+    <t>'pale'</t>
+  </si>
+  <si>
+    <t>erkiesen</t>
+  </si>
+  <si>
+    <t>erkiest/erkiest</t>
+  </si>
+  <si>
+    <t>erkor</t>
+  </si>
+  <si>
+    <t>erkoren</t>
+  </si>
+  <si>
+    <t>'choose'</t>
+  </si>
+  <si>
+    <t>erkieste</t>
+  </si>
+  <si>
+    <t>erkiest</t>
+  </si>
+  <si>
+    <t>erlöschen*</t>
+  </si>
+  <si>
+    <t>erlischst/erlischt</t>
+  </si>
+  <si>
+    <t>erlosch</t>
+  </si>
+  <si>
+    <t>erloschen</t>
+  </si>
+  <si>
+    <t>'die (out)'</t>
+  </si>
+  <si>
+    <t>erschrecken*</t>
+  </si>
+  <si>
+    <t>erschrickst/erschrickt</t>
+  </si>
+  <si>
+    <t>erschrak</t>
+  </si>
+  <si>
+    <t>erschrocken</t>
+  </si>
+  <si>
+    <t>'frighten'</t>
+  </si>
+  <si>
+    <t>ißt/ißt</t>
+  </si>
+  <si>
+    <t>aß</t>
+  </si>
+  <si>
+    <t>gegessen</t>
+  </si>
+  <si>
+    <t>'eat'</t>
+  </si>
+  <si>
+    <t>fahren (*)</t>
+  </si>
+  <si>
+    <t>fährst/fährt</t>
+  </si>
+  <si>
+    <t>fuhr</t>
+  </si>
+  <si>
+    <t>gefahren</t>
+  </si>
+  <si>
+    <t>'drive'</t>
+  </si>
+  <si>
+    <t>fallen*</t>
+  </si>
+  <si>
+    <t>fällst/fällt</t>
+  </si>
+  <si>
+    <t>fiel</t>
+  </si>
+  <si>
+    <t>'fall'</t>
+  </si>
+  <si>
+    <t>fängst/fängt</t>
+  </si>
+  <si>
+    <t>fing</t>
+  </si>
+  <si>
+    <t>gefangen</t>
+  </si>
+  <si>
+    <t>'catch'</t>
+  </si>
+  <si>
+    <t>fechten</t>
+  </si>
+  <si>
+    <t>fichtst/ficht</t>
+  </si>
+  <si>
+    <t>focht</t>
+  </si>
+  <si>
+    <t>gefochten</t>
+  </si>
+  <si>
+    <t>'fence'</t>
+  </si>
+  <si>
+    <t>findest/findet</t>
+  </si>
+  <si>
+    <t>fand</t>
+  </si>
+  <si>
+    <t>gefunden</t>
+  </si>
+  <si>
+    <t>'find'</t>
+  </si>
+  <si>
+    <t>flechten</t>
+  </si>
+  <si>
+    <t>flichst/flicht</t>
+  </si>
+  <si>
+    <t>flocht</t>
+  </si>
+  <si>
+    <t>geflochten</t>
+  </si>
+  <si>
+    <t>'plait'</t>
+  </si>
+  <si>
+    <t>fliegen (*)</t>
+  </si>
+  <si>
+    <t>fliegst/fliegt</t>
+  </si>
+  <si>
+    <t>flog</t>
+  </si>
+  <si>
+    <t>geflogen</t>
+  </si>
+  <si>
+    <t>'fly'</t>
+  </si>
+  <si>
+    <t>fliehen (*)</t>
+  </si>
+  <si>
+    <t>fliehst/flieht</t>
+  </si>
+  <si>
+    <t>floh</t>
+  </si>
+  <si>
+    <t>geflohen</t>
+  </si>
+  <si>
+    <t>'flee'</t>
+  </si>
+  <si>
+    <t>fließen*</t>
+  </si>
+  <si>
+    <t>fließt/fließt</t>
+  </si>
+  <si>
+    <t>floß</t>
+  </si>
+  <si>
+    <t>geflossen</t>
+  </si>
+  <si>
+    <t>'flow'</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>fragst/fragt</t>
+  </si>
+  <si>
+    <t>fragte/frug</t>
+  </si>
+  <si>
+    <t>gefragt</t>
+  </si>
+  <si>
+    <t>'ask'</t>
+  </si>
+  <si>
+    <t>frißt/frißt</t>
+  </si>
+  <si>
+    <t>fraß</t>
+  </si>
+  <si>
+    <t>gefressen</t>
+  </si>
+  <si>
+    <t>'snarf'</t>
+  </si>
+  <si>
+    <t>frierst/friert</t>
+  </si>
+  <si>
+    <t>fror</t>
+  </si>
+  <si>
+    <t>gefroren</t>
+  </si>
+  <si>
+    <t>'freeze'</t>
+  </si>
+  <si>
+    <t>gären (*)</t>
+  </si>
+  <si>
+    <t>gärst/gärt</t>
+  </si>
+  <si>
+    <t>gor</t>
+  </si>
+  <si>
+    <t>gegoren</t>
+  </si>
+  <si>
+    <t>'ferment'</t>
+  </si>
+  <si>
+    <r>
+      <t>Figuratively</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>gärte</t>
+  </si>
+  <si>
+    <t>gegärt</t>
+  </si>
+  <si>
+    <t>'disturb'</t>
+  </si>
+  <si>
+    <t>gebären</t>
+  </si>
+  <si>
+    <t>gebärst/gebärt</t>
+  </si>
+  <si>
+    <t>gebar</t>
+  </si>
+  <si>
+    <t>geboren</t>
+  </si>
+  <si>
+    <t>'give birth'</t>
+  </si>
+  <si>
+    <r>
+      <t>Elevated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>gebierst/gebiert</t>
+  </si>
+  <si>
+    <t>gibst/gibt</t>
+  </si>
+  <si>
+    <t>gab</t>
+  </si>
+  <si>
+    <t>gegeben</t>
+  </si>
+  <si>
+    <t>'give'</t>
+  </si>
+  <si>
+    <t>gedeihen*</t>
+  </si>
+  <si>
+    <t>gedeihst/gedeiht</t>
+  </si>
+  <si>
+    <t>gedieh</t>
+  </si>
+  <si>
+    <t>gediehen</t>
+  </si>
+  <si>
+    <t>'thrive'</t>
+  </si>
+  <si>
+    <t>gehen*</t>
+  </si>
+  <si>
+    <t>gehst/geht</t>
+  </si>
+  <si>
+    <t>ging</t>
+  </si>
+  <si>
+    <t>gegangen</t>
+  </si>
+  <si>
+    <t>'go'</t>
+  </si>
+  <si>
+    <t>gelingen*</t>
+  </si>
+  <si>
+    <t>--/gelingt</t>
+  </si>
+  <si>
+    <t>gelang</t>
+  </si>
+  <si>
+    <t>gelungen</t>
+  </si>
+  <si>
+    <t>'succeed'</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>giltst/gilt</t>
+  </si>
+  <si>
+    <t>galt</t>
+  </si>
+  <si>
+    <t>gegolten</t>
+  </si>
+  <si>
+    <t>'be worth'</t>
+  </si>
+  <si>
+    <t>genesen*</t>
+  </si>
+  <si>
+    <t>genest/genest</t>
+  </si>
+  <si>
+    <t>genas</t>
+  </si>
+  <si>
+    <t>genesen</t>
+  </si>
+  <si>
+    <t>'convalesce'</t>
+  </si>
+  <si>
+    <t>genießen</t>
+  </si>
+  <si>
+    <t>genießt/geneißt</t>
+  </si>
+  <si>
+    <t>genoß</t>
+  </si>
+  <si>
+    <t>genossen</t>
+  </si>
+  <si>
+    <t>'enjoy'</t>
+  </si>
+  <si>
+    <t>geraten*</t>
+  </si>
+  <si>
+    <t>gerätst/gerät</t>
+  </si>
+  <si>
+    <t>geriet</t>
+  </si>
+  <si>
+    <t>geraten</t>
+  </si>
+  <si>
+    <t>'turn out'</t>
+  </si>
+  <si>
+    <t>geschehen*</t>
+  </si>
+  <si>
+    <t>--/geschieht</t>
+  </si>
+  <si>
+    <t>geschah</t>
+  </si>
+  <si>
+    <t>geschehen</t>
+  </si>
+  <si>
+    <t>'happen'</t>
+  </si>
+  <si>
+    <t>gewinnst/gewinnt</t>
+  </si>
+  <si>
+    <t>gewann</t>
+  </si>
+  <si>
+    <t>gewonnen</t>
+  </si>
+  <si>
+    <t>'win'</t>
+  </si>
+  <si>
+    <t>gießen</t>
+  </si>
+  <si>
+    <t>gießt/gießt</t>
+  </si>
+  <si>
+    <t>goß</t>
+  </si>
+  <si>
+    <t>gegossen</t>
+  </si>
+  <si>
+    <t>'pour'</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>gleichst/gleicht</t>
+  </si>
+  <si>
+    <t>glich</t>
+  </si>
+  <si>
+    <t>geglichen</t>
+  </si>
+  <si>
+    <t>'compare'</t>
+  </si>
+  <si>
+    <t>gleißen</t>
+  </si>
+  <si>
+    <t>gleißt/gleißt</t>
+  </si>
+  <si>
+    <t>gleißte/gliß</t>
+  </si>
+  <si>
+    <t>geglissen</t>
+  </si>
+  <si>
+    <t>'gleam'</t>
+  </si>
+  <si>
+    <t>gleiten*</t>
+  </si>
+  <si>
+    <t>gleitest/gleitet</t>
+  </si>
+  <si>
+    <t>glitt</t>
+  </si>
+  <si>
+    <t>geglitten</t>
+  </si>
+  <si>
+    <t>'glide'</t>
+  </si>
+  <si>
+    <t>gleitete</t>
+  </si>
+  <si>
+    <t>gegleitet</t>
+  </si>
+  <si>
+    <t>glimmen</t>
+  </si>
+  <si>
+    <t>glimmst/glimmt</t>
+  </si>
+  <si>
+    <t>glomm</t>
+  </si>
+  <si>
+    <t>geglommen</t>
+  </si>
+  <si>
+    <t>'glow'</t>
+  </si>
+  <si>
+    <r>
+      <t>Sometimes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>glimmte</t>
+  </si>
+  <si>
+    <t>geglimmt</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>gräbst/gräbt</t>
+  </si>
+  <si>
+    <t>grub</t>
+  </si>
+  <si>
+    <t>gegraben</t>
+  </si>
+  <si>
+    <t>'dig'</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>greifst/greift</t>
+  </si>
+  <si>
+    <t>griff</t>
+  </si>
+  <si>
+    <t>gegriffen</t>
+  </si>
+  <si>
+    <t>'seize'</t>
+  </si>
+  <si>
+    <t>hast/hat</t>
+  </si>
+  <si>
+    <t>hatte</t>
+  </si>
+  <si>
+    <t>gehabt</t>
+  </si>
+  <si>
+    <t>'have'</t>
+  </si>
+  <si>
+    <t>halten</t>
+  </si>
+  <si>
+    <t>hältst/hält</t>
+  </si>
+  <si>
+    <t>hielt</t>
+  </si>
+  <si>
+    <t>gehalten</t>
+  </si>
+  <si>
+    <t>'hold'</t>
+  </si>
+  <si>
+    <t>hängen</t>
+  </si>
+  <si>
+    <t>hängst/hängt</t>
+  </si>
+  <si>
+    <t>hing</t>
+  </si>
+  <si>
+    <t>gehangen</t>
+  </si>
+  <si>
+    <t>'hang'</t>
+  </si>
+  <si>
+    <r>
+      <t>Transitive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>hängte</t>
+  </si>
+  <si>
+    <t>gehängt</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>haust/haut</t>
+  </si>
+  <si>
+    <t>haute</t>
+  </si>
+  <si>
+    <t>gehauen</t>
+  </si>
+  <si>
+    <t>'hew'</t>
+  </si>
+  <si>
+    <r>
+      <t>In battle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>hieb</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>hebst/hebt</t>
+  </si>
+  <si>
+    <t>hob</t>
+  </si>
+  <si>
+    <t>gehoben</t>
+  </si>
+  <si>
+    <t>'lift'</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>heißt/heißt</t>
+  </si>
+  <si>
+    <t>hieß</t>
+  </si>
+  <si>
+    <t>geheißen</t>
+  </si>
+  <si>
+    <t>'be called'</t>
+  </si>
+  <si>
+    <t>hilfst/hilft</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>geholfen</t>
+  </si>
+  <si>
+    <t>'help'</t>
+  </si>
+  <si>
+    <t>kennst/kennt</t>
+  </si>
+  <si>
+    <t>kannte</t>
+  </si>
+  <si>
+    <t>gekannt</t>
+  </si>
+  <si>
+    <t>'know'</t>
+  </si>
+  <si>
+    <t>klimmen*</t>
+  </si>
+  <si>
+    <t>klimmst/klimmt</t>
+  </si>
+  <si>
+    <t>klomm</t>
+  </si>
+  <si>
+    <t>geklommen</t>
+  </si>
+  <si>
+    <t>'climb'</t>
+  </si>
+  <si>
+    <r>
+      <t>Also</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>klimmte</t>
+  </si>
+  <si>
+    <t>geklimmt</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>klingst/klingt</t>
+  </si>
+  <si>
+    <t>klang</t>
+  </si>
+  <si>
+    <t>geklungen</t>
+  </si>
+  <si>
+    <t>'sound'</t>
+  </si>
+  <si>
+    <t>kneifen</t>
+  </si>
+  <si>
+    <t>kneifst/kneift</t>
+  </si>
+  <si>
+    <t>kniff</t>
+  </si>
+  <si>
+    <t>gekniffen</t>
+  </si>
+  <si>
+    <t>'pinch'</t>
+  </si>
+  <si>
+    <t>kommen*</t>
+  </si>
+  <si>
+    <t>kommst/kommt</t>
+  </si>
+  <si>
+    <t>kam</t>
+  </si>
+  <si>
+    <t>gekommen</t>
+  </si>
+  <si>
+    <t>'come'</t>
+  </si>
+  <si>
+    <t>können</t>
+  </si>
+  <si>
+    <t>kann/kannst/kann</t>
+  </si>
+  <si>
+    <t>konnte</t>
+  </si>
+  <si>
+    <t>gekonnt</t>
+  </si>
+  <si>
+    <t>'be able'</t>
+  </si>
+  <si>
+    <t>kreischen</t>
+  </si>
+  <si>
+    <t>kreischst/kreischt</t>
+  </si>
+  <si>
+    <t>kreischte</t>
+  </si>
+  <si>
+    <t>gekreischt</t>
+  </si>
+  <si>
+    <t>'shriek'</t>
+  </si>
+  <si>
+    <t>krisch</t>
+  </si>
+  <si>
+    <t>gekrischen</t>
+  </si>
+  <si>
+    <t>kriechen*</t>
+  </si>
+  <si>
+    <t>kriechst/kriecht</t>
+  </si>
+  <si>
+    <t>kroch</t>
+  </si>
+  <si>
+    <t>gekrochen</t>
+  </si>
+  <si>
+    <t>'crawl'</t>
+  </si>
+  <si>
+    <t>küren+</t>
+  </si>
+  <si>
+    <t>kürst/kürt</t>
+  </si>
+  <si>
+    <t>kürte</t>
+  </si>
+  <si>
+    <t>gekürt</t>
+  </si>
+  <si>
+    <t>kor</t>
+  </si>
+  <si>
+    <t>gekoren</t>
+  </si>
+  <si>
+    <t>laden</t>
+  </si>
+  <si>
+    <t>lädst/lädt</t>
+  </si>
+  <si>
+    <t>lud</t>
+  </si>
+  <si>
+    <t>geladen</t>
+  </si>
+  <si>
+    <t>'load'</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>läßt/läßt</t>
+  </si>
+  <si>
+    <t>ließ</t>
+  </si>
+  <si>
+    <t>gelassen</t>
+  </si>
+  <si>
+    <t>'let'</t>
+  </si>
+  <si>
+    <t>laufen (*)</t>
+  </si>
+  <si>
+    <t>läufst/läuft</t>
+  </si>
+  <si>
+    <t>lief</t>
+  </si>
+  <si>
+    <t>gelaufen</t>
+  </si>
+  <si>
+    <t>'run'</t>
+  </si>
+  <si>
+    <t>leidest/leidet</t>
+  </si>
+  <si>
+    <t>litt</t>
+  </si>
+  <si>
+    <t>gelitten</t>
+  </si>
+  <si>
+    <t>'suffer'</t>
+  </si>
+  <si>
+    <t>leihst/leiht</t>
+  </si>
+  <si>
+    <t>lieh</t>
+  </si>
+  <si>
+    <t>geliehen</t>
+  </si>
+  <si>
+    <t>'lend'</t>
+  </si>
+  <si>
+    <t>liest/liest</t>
+  </si>
+  <si>
+    <t>las</t>
+  </si>
+  <si>
+    <t>gelesen</t>
+  </si>
+  <si>
+    <t>'read'</t>
+  </si>
+  <si>
+    <t>liegen (*)</t>
+  </si>
+  <si>
+    <t>liegst/liegt</t>
+  </si>
+  <si>
+    <t>lag</t>
+  </si>
+  <si>
+    <t>gelegen</t>
+  </si>
+  <si>
+    <t>'lie'</t>
+  </si>
+  <si>
+    <t>löschen*</t>
+  </si>
+  <si>
+    <t>lischst/lischt</t>
+  </si>
+  <si>
+    <t>losch</t>
+  </si>
+  <si>
+    <t>geloschen</t>
+  </si>
+  <si>
+    <t>'go out'</t>
+  </si>
+  <si>
+    <t>löschte</t>
+  </si>
+  <si>
+    <t>gelöscht</t>
+  </si>
+  <si>
+    <t>'put out'</t>
+  </si>
+  <si>
+    <t>lügst/lügt</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>gelogen</t>
+  </si>
+  <si>
+    <t>'tell lies'</t>
+  </si>
+  <si>
+    <t>mahlen</t>
+  </si>
+  <si>
+    <t>mahlst/mahlt</t>
+  </si>
+  <si>
+    <t>mahlte</t>
+  </si>
+  <si>
+    <t>gemahlen</t>
+  </si>
+  <si>
+    <t>'grind'</t>
+  </si>
+  <si>
+    <t>meiden</t>
+  </si>
+  <si>
+    <t>meidest/meidet</t>
+  </si>
+  <si>
+    <t>mied</t>
+  </si>
+  <si>
+    <t>gemieden</t>
+  </si>
+  <si>
+    <t>'avoid'</t>
+  </si>
+  <si>
+    <t>melken</t>
+  </si>
+  <si>
+    <t>melkst/melkt</t>
+  </si>
+  <si>
+    <t>melkte</t>
+  </si>
+  <si>
+    <t>gemelkt</t>
+  </si>
+  <si>
+    <t>'milk'</t>
+  </si>
+  <si>
+    <t>milkst/milkt</t>
+  </si>
+  <si>
+    <t>molk</t>
+  </si>
+  <si>
+    <t>gemolken</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>mißt/mißt</t>
+  </si>
+  <si>
+    <t>maß</t>
+  </si>
+  <si>
+    <t>gemessen</t>
+  </si>
+  <si>
+    <t>'measure'</t>
+  </si>
+  <si>
+    <t>mißlingen*</t>
+  </si>
+  <si>
+    <t>--/mißlingt</t>
+  </si>
+  <si>
+    <t>mißlang</t>
+  </si>
+  <si>
+    <t>mißlungen</t>
+  </si>
+  <si>
+    <t>'fail'</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>mag/magst/mag</t>
+  </si>
+  <si>
+    <t>mochte</t>
+  </si>
+  <si>
+    <t>gemocht</t>
+  </si>
+  <si>
+    <t>'like'</t>
+  </si>
+  <si>
+    <t>müssen</t>
+  </si>
+  <si>
+    <t>muß/mußt/muß</t>
+  </si>
+  <si>
+    <t>mußte</t>
+  </si>
+  <si>
+    <t>gemußt</t>
+  </si>
+  <si>
+    <t>'must'</t>
+  </si>
+  <si>
+    <t>nimmst/nimmt</t>
+  </si>
+  <si>
+    <t>nahm</t>
+  </si>
+  <si>
+    <t>genommen</t>
+  </si>
+  <si>
+    <t>'take'</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>nennst/nennt</t>
+  </si>
+  <si>
+    <t>nannte</t>
+  </si>
+  <si>
+    <t>genannt</t>
+  </si>
+  <si>
+    <t>'name'</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>pfeifst/pfeift</t>
+  </si>
+  <si>
+    <t>pfiff</t>
+  </si>
+  <si>
+    <t>gepfiffen</t>
+  </si>
+  <si>
+    <t>'whistle'</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>pflegst/pflegt</t>
+  </si>
+  <si>
+    <t>pflegte</t>
+  </si>
+  <si>
+    <t>gepflegt</t>
+  </si>
+  <si>
+    <t>'care for'</t>
+  </si>
+  <si>
+    <r>
+      <t>Idiomatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>pflog</t>
+  </si>
+  <si>
+    <t>gepflogen</t>
+  </si>
+  <si>
+    <t>'go in for'</t>
+  </si>
+  <si>
+    <t>preisen</t>
+  </si>
+  <si>
+    <t>preist/preist</t>
+  </si>
+  <si>
+    <t>pries</t>
+  </si>
+  <si>
+    <t>gepriesen</t>
+  </si>
+  <si>
+    <t>'praise'</t>
+  </si>
+  <si>
+    <t>quellen*</t>
+  </si>
+  <si>
+    <t>quillst/quillt</t>
+  </si>
+  <si>
+    <t>quoll</t>
+  </si>
+  <si>
+    <t>gequollen</t>
+  </si>
+  <si>
+    <t>'well up'</t>
+  </si>
+  <si>
+    <t>quellte</t>
+  </si>
+  <si>
+    <t>gequellt</t>
+  </si>
+  <si>
+    <t>'soak'</t>
+  </si>
+  <si>
+    <t>rätst/rät</t>
+  </si>
+  <si>
+    <t>riet</t>
+  </si>
+  <si>
+    <t>'guess'</t>
+  </si>
+  <si>
+    <t>reiben</t>
+  </si>
+  <si>
+    <t>reibst/reibt</t>
+  </si>
+  <si>
+    <t>rieb</t>
+  </si>
+  <si>
+    <t>gerieben</t>
+  </si>
+  <si>
+    <t>'rub'</t>
+  </si>
+  <si>
+    <t>reißen (*)</t>
+  </si>
+  <si>
+    <t>reißt/reißt</t>
+  </si>
+  <si>
+    <t>riß</t>
+  </si>
+  <si>
+    <t>gerissen</t>
+  </si>
+  <si>
+    <t>'tear'</t>
+  </si>
+  <si>
+    <t>reiten (*)</t>
+  </si>
+  <si>
+    <t>reitest/reitet</t>
+  </si>
+  <si>
+    <t>ritt</t>
+  </si>
+  <si>
+    <t>geritten</t>
+  </si>
+  <si>
+    <t>'ride'</t>
+  </si>
+  <si>
+    <t>rennen*</t>
+  </si>
+  <si>
+    <t>rennst/rennt</t>
+  </si>
+  <si>
+    <t>rannte</t>
+  </si>
+  <si>
+    <t>gerannt</t>
+  </si>
+  <si>
+    <t>riechst/riecht</t>
+  </si>
+  <si>
+    <t>roch</t>
+  </si>
+  <si>
+    <t>gerochen</t>
+  </si>
+  <si>
+    <t>'smell'</t>
+  </si>
+  <si>
+    <t>ringen</t>
+  </si>
+  <si>
+    <t>ringst/ringt</t>
+  </si>
+  <si>
+    <t>rang</t>
+  </si>
+  <si>
+    <t>gerungen</t>
+  </si>
+  <si>
+    <t>'wrestle'</t>
+  </si>
+  <si>
+    <t>rinnen*</t>
+  </si>
+  <si>
+    <t>rinnst/rinnt</t>
+  </si>
+  <si>
+    <t>rann</t>
+  </si>
+  <si>
+    <t>geronnen</t>
+  </si>
+  <si>
+    <t>'trickle'</t>
+  </si>
+  <si>
+    <t>rufst/ruft</t>
+  </si>
+  <si>
+    <t>rief</t>
+  </si>
+  <si>
+    <t>gerufen</t>
+  </si>
+  <si>
+    <t>'call'</t>
+  </si>
+  <si>
+    <t>salzen</t>
+  </si>
+  <si>
+    <t>salzt/salzt</t>
+  </si>
+  <si>
+    <t>salzte</t>
+  </si>
+  <si>
+    <t>gesalzen</t>
+  </si>
+  <si>
+    <t>'salt'</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>säufst/säuft</t>
+  </si>
+  <si>
+    <t>soff</t>
+  </si>
+  <si>
+    <t>gesoffen</t>
+  </si>
+  <si>
+    <t>'booze'</t>
+  </si>
+  <si>
+    <t>saugen</t>
+  </si>
+  <si>
+    <t>saugst/saugt</t>
+  </si>
+  <si>
+    <t>sog</t>
+  </si>
+  <si>
+    <t>gesogen</t>
+  </si>
+  <si>
+    <t>'suck'</t>
+  </si>
+  <si>
+    <r>
+      <t>Technical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>saugte</t>
+  </si>
+  <si>
+    <t>gesaugt</t>
+  </si>
+  <si>
+    <t>'absorb'</t>
+  </si>
+  <si>
+    <t>schaffen</t>
+  </si>
+  <si>
+    <t>schaffst/schafft</t>
+  </si>
+  <si>
+    <t>schuf</t>
+  </si>
+  <si>
+    <t>geschaffen</t>
+  </si>
+  <si>
+    <t>'create'</t>
+  </si>
+  <si>
+    <t>schaffte</t>
+  </si>
+  <si>
+    <t>geschafft</t>
+  </si>
+  <si>
+    <t>'work'</t>
+  </si>
+  <si>
+    <t>schallen</t>
+  </si>
+  <si>
+    <t>schallst/schallt</t>
+  </si>
+  <si>
+    <t>schallte</t>
+  </si>
+  <si>
+    <t>geschollen</t>
+  </si>
+  <si>
+    <t>'resound'</t>
+  </si>
+  <si>
+    <t>scheiden*</t>
+  </si>
+  <si>
+    <t>scheidest/scheidet</t>
+  </si>
+  <si>
+    <t>schied</t>
+  </si>
+  <si>
+    <t>geschieden</t>
+  </si>
+  <si>
+    <t>'separate'</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>scheinst/scheint</t>
+  </si>
+  <si>
+    <t>schien</t>
+  </si>
+  <si>
+    <t>geschienen</t>
+  </si>
+  <si>
+    <t>'shine'</t>
+  </si>
+  <si>
+    <t>scheißen</t>
+  </si>
+  <si>
+    <t>scheißt/scheißt</t>
+  </si>
+  <si>
+    <t>schiß</t>
+  </si>
+  <si>
+    <t>geschissen</t>
+  </si>
+  <si>
+    <t>'shit'</t>
+  </si>
+  <si>
+    <t>schelten</t>
+  </si>
+  <si>
+    <t>schiltst/schilt</t>
+  </si>
+  <si>
+    <t>schalt</t>
+  </si>
+  <si>
+    <t>gescholten</t>
+  </si>
+  <si>
+    <t>'scold'</t>
+  </si>
+  <si>
+    <t>scheren</t>
+  </si>
+  <si>
+    <t>schierst/schiert</t>
+  </si>
+  <si>
+    <t>schor</t>
+  </si>
+  <si>
+    <t>geschoren</t>
+  </si>
+  <si>
+    <t>'shear'</t>
+  </si>
+  <si>
+    <t>schieben</t>
+  </si>
+  <si>
+    <t>schiebst/schiebt</t>
+  </si>
+  <si>
+    <t>schob</t>
+  </si>
+  <si>
+    <t>geschoben</t>
+  </si>
+  <si>
+    <t>'push'</t>
+  </si>
+  <si>
+    <t>schießen</t>
+  </si>
+  <si>
+    <t>schießt/schießt</t>
+  </si>
+  <si>
+    <t>schoß</t>
+  </si>
+  <si>
+    <t>geschossen</t>
+  </si>
+  <si>
+    <t>'shoot'</t>
+  </si>
+  <si>
+    <t>schinden</t>
+  </si>
+  <si>
+    <t>schindest/schindet</t>
+  </si>
+  <si>
+    <t>schindete</t>
+  </si>
+  <si>
+    <t>geschunden</t>
+  </si>
+  <si>
+    <t>'fleece'</t>
+  </si>
+  <si>
+    <t>schund</t>
+  </si>
+  <si>
+    <t>schläfst/schläft</t>
+  </si>
+  <si>
+    <t>schlief</t>
+  </si>
+  <si>
+    <t>geschlafen</t>
+  </si>
+  <si>
+    <t>'sleep'</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>schlägst/schlägt</t>
+  </si>
+  <si>
+    <t>schlug</t>
+  </si>
+  <si>
+    <t>geschlagen</t>
+  </si>
+  <si>
+    <t>'strike'</t>
+  </si>
+  <si>
+    <t>schleichen*</t>
+  </si>
+  <si>
+    <t>schleichst/schleicht</t>
+  </si>
+  <si>
+    <t>schlich</t>
+  </si>
+  <si>
+    <t>geschlichen</t>
+  </si>
+  <si>
+    <t>'creep'</t>
+  </si>
+  <si>
+    <t>schleifen</t>
+  </si>
+  <si>
+    <t>schleifst/schleift</t>
+  </si>
+  <si>
+    <t>schliff</t>
+  </si>
+  <si>
+    <t>geschliffen</t>
+  </si>
+  <si>
+    <t>'sharpen'</t>
+  </si>
+  <si>
+    <t>schleifte</t>
+  </si>
+  <si>
+    <t>geschleift</t>
+  </si>
+  <si>
+    <t>'drag, raze'</t>
+  </si>
+  <si>
+    <t>schleißen</t>
+  </si>
+  <si>
+    <t>schleißt/schleißt</t>
+  </si>
+  <si>
+    <t>schliß</t>
+  </si>
+  <si>
+    <t>geschlissen</t>
+  </si>
+  <si>
+    <t>'pluck'</t>
+  </si>
+  <si>
+    <t>schleißte</t>
+  </si>
+  <si>
+    <t>geschleißt</t>
+  </si>
+  <si>
+    <t>schließt/schließt</t>
+  </si>
+  <si>
+    <t>schloß</t>
+  </si>
+  <si>
+    <t>geschlossen</t>
+  </si>
+  <si>
+    <t>'close'</t>
+  </si>
+  <si>
+    <t>schlingen</t>
+  </si>
+  <si>
+    <t>schlingst/schlingt</t>
+  </si>
+  <si>
+    <t>schlang</t>
+  </si>
+  <si>
+    <t>geschlungen</t>
+  </si>
+  <si>
+    <t>'wind; bolt'</t>
+  </si>
+  <si>
+    <t>schmeißen</t>
+  </si>
+  <si>
+    <t>schmeißt/schmeißt</t>
+  </si>
+  <si>
+    <t>schmiß</t>
+  </si>
+  <si>
+    <t>geschmissen</t>
+  </si>
+  <si>
+    <t>'chuck'</t>
+  </si>
+  <si>
+    <t>schmeißte</t>
+  </si>
+  <si>
+    <t>geschmeißt</t>
+  </si>
+  <si>
+    <t>'befoul'</t>
+  </si>
+  <si>
+    <t>schmelzen (*)</t>
+  </si>
+  <si>
+    <t>schmilzt/scmhilzt</t>
+  </si>
+  <si>
+    <t>schmolz</t>
+  </si>
+  <si>
+    <t>geschmolzen</t>
+  </si>
+  <si>
+    <t>'melt'</t>
+  </si>
+  <si>
+    <r>
+      <t>Transitive often</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>schmelzte</t>
+  </si>
+  <si>
+    <t>geschmelzt</t>
+  </si>
+  <si>
+    <t>schnauben</t>
+  </si>
+  <si>
+    <t>schnaubst/schnaubt</t>
+  </si>
+  <si>
+    <t>schnaubte</t>
+  </si>
+  <si>
+    <t>geschnaubt</t>
+  </si>
+  <si>
+    <t>'snort'</t>
+  </si>
+  <si>
+    <t>schnob</t>
+  </si>
+  <si>
+    <t>geschnoben</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>schneidest/schneidet</t>
+  </si>
+  <si>
+    <t>schnitt</t>
+  </si>
+  <si>
+    <t>geschnitten</t>
+  </si>
+  <si>
+    <t>'cut'</t>
+  </si>
+  <si>
+    <t>schreibst/schreibt</t>
+  </si>
+  <si>
+    <t>schrieb</t>
+  </si>
+  <si>
+    <t>geschrieben</t>
+  </si>
+  <si>
+    <t>'write'</t>
+  </si>
+  <si>
+    <t>schreist/schreit</t>
+  </si>
+  <si>
+    <t>schrie</t>
+  </si>
+  <si>
+    <t>geschrien</t>
+  </si>
+  <si>
+    <t>'scream'</t>
+  </si>
+  <si>
+    <t>schreiten*</t>
+  </si>
+  <si>
+    <t>schreitest/schreitet</t>
+  </si>
+  <si>
+    <t>schritt</t>
+  </si>
+  <si>
+    <t>geschritten</t>
+  </si>
+  <si>
+    <t>'stride'</t>
+  </si>
+  <si>
+    <t>schwären</t>
+  </si>
+  <si>
+    <t>schwärst/schwärt</t>
+  </si>
+  <si>
+    <t>schwärte</t>
+  </si>
+  <si>
+    <t>geschwärt</t>
+  </si>
+  <si>
+    <t>'fester'</t>
+  </si>
+  <si>
+    <t>schwor</t>
+  </si>
+  <si>
+    <t>geschworen</t>
+  </si>
+  <si>
+    <t>schweigen</t>
+  </si>
+  <si>
+    <t>schweigst/schweigt</t>
+  </si>
+  <si>
+    <t>schwieg</t>
+  </si>
+  <si>
+    <t>geschwiegen</t>
+  </si>
+  <si>
+    <t>'clam up'</t>
+  </si>
+  <si>
+    <t>schwellen*</t>
+  </si>
+  <si>
+    <t>schwillst/schwillt</t>
+  </si>
+  <si>
+    <t>schwoll</t>
+  </si>
+  <si>
+    <t>geschwollen</t>
+  </si>
+  <si>
+    <t>'swell'</t>
+  </si>
+  <si>
+    <t>schwellte</t>
+  </si>
+  <si>
+    <t>geschwellt</t>
+  </si>
+  <si>
+    <t>schwimmen (*)</t>
+  </si>
+  <si>
+    <t>schwimmst/schwimmt</t>
+  </si>
+  <si>
+    <t>schwamm</t>
+  </si>
+  <si>
+    <t>geschwommen</t>
+  </si>
+  <si>
+    <t>'swim'</t>
+  </si>
+  <si>
+    <t>schwinden*</t>
+  </si>
+  <si>
+    <t>schwindest/schwindet</t>
+  </si>
+  <si>
+    <t>schwand</t>
+  </si>
+  <si>
+    <t>geschwunden</t>
+  </si>
+  <si>
+    <t>'disappear'</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>schwingst/schwingt</t>
+  </si>
+  <si>
+    <t>schwang</t>
+  </si>
+  <si>
+    <t>geschwungen</t>
+  </si>
+  <si>
+    <t>'swing'</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>schwörst/schwört</t>
+  </si>
+  <si>
+    <t>schwur</t>
+  </si>
+  <si>
+    <t>'swear'</t>
+  </si>
+  <si>
+    <t>siehst/sieht</t>
+  </si>
+  <si>
+    <t>sah</t>
+  </si>
+  <si>
+    <t>gesehen</t>
+  </si>
+  <si>
+    <t>'see'</t>
+  </si>
+  <si>
+    <t>sein*</t>
+  </si>
+  <si>
+    <t>bin/bist/ist</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>gewesen</t>
+  </si>
+  <si>
+    <t>'be'</t>
+  </si>
+  <si>
+    <t>sind/seid/sind</t>
+  </si>
+  <si>
+    <t>senden</t>
+  </si>
+  <si>
+    <t>sendest/sendet</t>
+  </si>
+  <si>
+    <t>sandte</t>
+  </si>
+  <si>
+    <t>gesandt</t>
+  </si>
+  <si>
+    <t>'send'</t>
+  </si>
+  <si>
+    <r>
+      <t>Radio etc.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>sendete</t>
+  </si>
+  <si>
+    <t>gesendet</t>
+  </si>
+  <si>
+    <t>'transmit'</t>
+  </si>
+  <si>
+    <t>sieden</t>
+  </si>
+  <si>
+    <t>siedest/siedet</t>
+  </si>
+  <si>
+    <t>siedete</t>
+  </si>
+  <si>
+    <t>gesiedet</t>
+  </si>
+  <si>
+    <t>'boil'</t>
+  </si>
+  <si>
+    <t>sott</t>
+  </si>
+  <si>
+    <t>gesotten</t>
+  </si>
+  <si>
+    <t>singen</t>
+  </si>
+  <si>
+    <t>singst/singt</t>
+  </si>
+  <si>
+    <t>sang</t>
+  </si>
+  <si>
+    <t>gesungen</t>
+  </si>
+  <si>
+    <t>'sing'</t>
+  </si>
+  <si>
+    <t>sinken*</t>
+  </si>
+  <si>
+    <t>sinkst/sinkt</t>
+  </si>
+  <si>
+    <t>sank</t>
+  </si>
+  <si>
+    <t>gesunken</t>
+  </si>
+  <si>
+    <t>'sink'</t>
+  </si>
+  <si>
+    <t>sinnen</t>
+  </si>
+  <si>
+    <t>sinnst/sinnt</t>
+  </si>
+  <si>
+    <t>sann</t>
+  </si>
+  <si>
+    <t>gesonnen</t>
+  </si>
+  <si>
+    <t>'ponder'</t>
+  </si>
+  <si>
+    <t>sitzen*</t>
+  </si>
+  <si>
+    <t>sitzt/sitzt</t>
+  </si>
+  <si>
+    <t>saß</t>
+  </si>
+  <si>
+    <t>gesessen</t>
+  </si>
+  <si>
+    <t>'sit'</t>
+  </si>
+  <si>
+    <t>sollen</t>
+  </si>
+  <si>
+    <t>soll/sollst/soll</t>
+  </si>
+  <si>
+    <t>sollte</t>
+  </si>
+  <si>
+    <t>gesollt</t>
+  </si>
+  <si>
+    <t>'should'</t>
+  </si>
+  <si>
+    <t>speien</t>
+  </si>
+  <si>
+    <t>speist/speit</t>
+  </si>
+  <si>
+    <t>spie</t>
+  </si>
+  <si>
+    <t>gespien</t>
+  </si>
+  <si>
+    <t>'spit'</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>spinnst/spinn</t>
+  </si>
+  <si>
+    <t>spann</t>
+  </si>
+  <si>
+    <t>gesponnen</t>
+  </si>
+  <si>
+    <t>'spin'</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>sprichst/spricht</t>
+  </si>
+  <si>
+    <t>sprach</t>
+  </si>
+  <si>
+    <t>gesprochen</t>
+  </si>
+  <si>
+    <t>'speak'</t>
+  </si>
+  <si>
+    <t>sprießen*</t>
+  </si>
+  <si>
+    <t>sprießt/sprießt</t>
+  </si>
+  <si>
+    <t>sproß</t>
+  </si>
+  <si>
+    <t>gesprossen</t>
+  </si>
+  <si>
+    <t>'spring up'</t>
+  </si>
+  <si>
+    <t>springen*</t>
+  </si>
+  <si>
+    <t>springst/springt</t>
+  </si>
+  <si>
+    <t>sprang</t>
+  </si>
+  <si>
+    <t>gesprungen</t>
+  </si>
+  <si>
+    <t>'jump'</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>stichst/sticht</t>
+  </si>
+  <si>
+    <t>stach</t>
+  </si>
+  <si>
+    <t>gestochen</t>
+  </si>
+  <si>
+    <t>'prick'</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>steckst/steckt</t>
+  </si>
+  <si>
+    <t>stak/steckte</t>
+  </si>
+  <si>
+    <t>gesteckt</t>
+  </si>
+  <si>
+    <t>'be stuck'</t>
+  </si>
+  <si>
+    <t>steckte</t>
+  </si>
+  <si>
+    <t>'put'</t>
+  </si>
+  <si>
+    <t>stehen</t>
+  </si>
+  <si>
+    <t>stehst/steht</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>gestanden</t>
+  </si>
+  <si>
+    <t>'stand'</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>stiehlst/stiehlt</t>
+  </si>
+  <si>
+    <t>stahl</t>
+  </si>
+  <si>
+    <t>gestohlen</t>
+  </si>
+  <si>
+    <t>'steal'</t>
+  </si>
+  <si>
+    <t>steigen*</t>
+  </si>
+  <si>
+    <t>steigst/steigt</t>
+  </si>
+  <si>
+    <t>stieg</t>
+  </si>
+  <si>
+    <t>gestiegen</t>
+  </si>
+  <si>
+    <t>sterben*</t>
+  </si>
+  <si>
+    <t>stirbst/stirbt</t>
+  </si>
+  <si>
+    <t>starb</t>
+  </si>
+  <si>
+    <t>gestorben</t>
+  </si>
+  <si>
+    <t>'die'</t>
+  </si>
+  <si>
+    <t>stieben (*)</t>
+  </si>
+  <si>
+    <t>stiebst/stiebt</t>
+  </si>
+  <si>
+    <t>stob</t>
+  </si>
+  <si>
+    <t>gestoben</t>
+  </si>
+  <si>
+    <t>'fly about'</t>
+  </si>
+  <si>
+    <t>stiebte</t>
+  </si>
+  <si>
+    <t>gestiebt</t>
+  </si>
+  <si>
+    <t>stinken</t>
+  </si>
+  <si>
+    <t>stinkst/stinkt</t>
+  </si>
+  <si>
+    <t>stank</t>
+  </si>
+  <si>
+    <t>gestunken</t>
+  </si>
+  <si>
+    <t>'stink'</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>stößt/stößt</t>
+  </si>
+  <si>
+    <t>stieß</t>
+  </si>
+  <si>
+    <t>gestossen</t>
+  </si>
+  <si>
+    <t>'shove'</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>streichst/streicht</t>
+  </si>
+  <si>
+    <t>strich</t>
+  </si>
+  <si>
+    <t>gestrichen</t>
+  </si>
+  <si>
+    <t>'stroke'</t>
+  </si>
+  <si>
+    <t>streiten*</t>
+  </si>
+  <si>
+    <t>streitest/streitet</t>
+  </si>
+  <si>
+    <t>stritt</t>
+  </si>
+  <si>
+    <t>gestritten</t>
+  </si>
+  <si>
+    <t>'argue'</t>
+  </si>
+  <si>
+    <t>trägst/trägt</t>
+  </si>
+  <si>
+    <t>trug</t>
+  </si>
+  <si>
+    <t>getragen</t>
+  </si>
+  <si>
+    <t>'carry'</t>
+  </si>
+  <si>
+    <t>triffst/trifft</t>
+  </si>
+  <si>
+    <t>traf</t>
+  </si>
+  <si>
+    <t>getroffen</t>
+  </si>
+  <si>
+    <t>'meet'</t>
+  </si>
+  <si>
+    <t>treiben*</t>
+  </si>
+  <si>
+    <t>treibst/treibt</t>
+  </si>
+  <si>
+    <t>trieb</t>
+  </si>
+  <si>
+    <t>getrieben</t>
+  </si>
+  <si>
+    <t>treten*</t>
+  </si>
+  <si>
+    <t>trittst/tritt</t>
+  </si>
+  <si>
+    <t>trat</t>
+  </si>
+  <si>
+    <t>getreten</t>
+  </si>
+  <si>
+    <t>'step'</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>triefst/trieft</t>
+  </si>
+  <si>
+    <t>troff</t>
+  </si>
+  <si>
+    <t>'drip'</t>
+  </si>
+  <si>
+    <r>
+      <t>Often</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>triefte</t>
+  </si>
+  <si>
+    <t>getrieft</t>
+  </si>
+  <si>
+    <t>trinkst/trinkt</t>
+  </si>
+  <si>
+    <t>trank</t>
+  </si>
+  <si>
+    <t>getrunken</t>
+  </si>
+  <si>
+    <t>'drink'</t>
+  </si>
+  <si>
+    <t>trügen</t>
+  </si>
+  <si>
+    <t>trügst/trügt</t>
+  </si>
+  <si>
+    <t>trog</t>
+  </si>
+  <si>
+    <t>getrogen</t>
+  </si>
+  <si>
+    <t>'deceive'</t>
+  </si>
+  <si>
+    <t>tun</t>
+  </si>
+  <si>
+    <t>tust/tut</t>
+  </si>
+  <si>
+    <t>tat</t>
+  </si>
+  <si>
+    <t>getan</t>
+  </si>
+  <si>
+    <t>'do'</t>
+  </si>
+  <si>
+    <t>verderben</t>
+  </si>
+  <si>
+    <t>verdirbst/verdirbt</t>
+  </si>
+  <si>
+    <t>verdarb</t>
+  </si>
+  <si>
+    <t>verdorben</t>
+  </si>
+  <si>
+    <t>'spoil'</t>
+  </si>
+  <si>
+    <t>verdrießen</t>
+  </si>
+  <si>
+    <t>verdrießt/verdrießt</t>
+  </si>
+  <si>
+    <t>verdroß</t>
+  </si>
+  <si>
+    <t>verdrossen</t>
+  </si>
+  <si>
+    <t>'peeve'</t>
+  </si>
+  <si>
+    <t>vergißt/vergißt</t>
+  </si>
+  <si>
+    <t>vergaß</t>
+  </si>
+  <si>
+    <t>'forget'</t>
+  </si>
+  <si>
+    <t>verlierst/verliert</t>
+  </si>
+  <si>
+    <t>verlor</t>
+  </si>
+  <si>
+    <t>verloren</t>
+  </si>
+  <si>
+    <t>'lose'</t>
+  </si>
+  <si>
+    <t>verschleißen</t>
+  </si>
+  <si>
+    <t>verschleißt/verschleißt</t>
+  </si>
+  <si>
+    <t>verschliß</t>
+  </si>
+  <si>
+    <t>verschlissen</t>
+  </si>
+  <si>
+    <t>'wear out'</t>
+  </si>
+  <si>
+    <t>wachsen*</t>
+  </si>
+  <si>
+    <t>wächst/wächst</t>
+  </si>
+  <si>
+    <t>wuchs</t>
+  </si>
+  <si>
+    <t>gewachsen</t>
+  </si>
+  <si>
+    <t>'grow'</t>
+  </si>
+  <si>
+    <t>wägen</t>
+  </si>
+  <si>
+    <t>wägst/wägt</t>
+  </si>
+  <si>
+    <t>wog</t>
+  </si>
+  <si>
+    <t>gewogen</t>
+  </si>
+  <si>
+    <t>'weigh'</t>
+  </si>
+  <si>
+    <t>wägte</t>
+  </si>
+  <si>
+    <t>gewägt</t>
+  </si>
+  <si>
+    <t>wäschst/wäscht</t>
+  </si>
+  <si>
+    <t>wusch</t>
+  </si>
+  <si>
+    <t>gewaschen</t>
+  </si>
+  <si>
+    <t>'wash'</t>
+  </si>
+  <si>
+    <t>weben</t>
+  </si>
+  <si>
+    <t>webst/webt</t>
+  </si>
+  <si>
+    <t>webte</t>
+  </si>
+  <si>
+    <t>gewebt</t>
+  </si>
+  <si>
+    <t>'weave'</t>
+  </si>
+  <si>
+    <t>wob</t>
+  </si>
+  <si>
+    <t>gewoben</t>
+  </si>
+  <si>
+    <t>weichen*</t>
+  </si>
+  <si>
+    <t>weichst/weicht</t>
+  </si>
+  <si>
+    <t>wich</t>
+  </si>
+  <si>
+    <t>gewichen</t>
+  </si>
+  <si>
+    <t>'yield'</t>
+  </si>
+  <si>
+    <t>weichte</t>
+  </si>
+  <si>
+    <t>geweicht</t>
+  </si>
+  <si>
+    <t>'soften'</t>
+  </si>
+  <si>
+    <t>weisen</t>
+  </si>
+  <si>
+    <t>weist/weist</t>
+  </si>
+  <si>
+    <t>wies</t>
+  </si>
+  <si>
+    <t>gewiesen</t>
+  </si>
+  <si>
+    <t>'how'</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>wendest/wendet</t>
+  </si>
+  <si>
+    <t>wandte</t>
+  </si>
+  <si>
+    <t>gewandt</t>
+  </si>
+  <si>
+    <t>'turn'</t>
+  </si>
+  <si>
+    <t>wendete</t>
+  </si>
+  <si>
+    <t>gewendet</t>
+  </si>
+  <si>
+    <t>'change'</t>
+  </si>
+  <si>
+    <t>werben</t>
+  </si>
+  <si>
+    <t>wirbst/wirbt</t>
+  </si>
+  <si>
+    <t>warb</t>
+  </si>
+  <si>
+    <t>geworben</t>
+  </si>
+  <si>
+    <t>werden*</t>
+  </si>
+  <si>
+    <t>wirst/wirt</t>
+  </si>
+  <si>
+    <t>wurde</t>
+  </si>
+  <si>
+    <t>(ge)worden</t>
+  </si>
+  <si>
+    <t>'become'</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>wirfst/wirft</t>
+  </si>
+  <si>
+    <t>warf</t>
+  </si>
+  <si>
+    <t>geworfen</t>
+  </si>
+  <si>
+    <t>'throw'</t>
+  </si>
+  <si>
+    <t>wiegen1</t>
+  </si>
+  <si>
+    <t>wiegst/wiegt</t>
+  </si>
+  <si>
+    <t>wiegen2</t>
+  </si>
+  <si>
+    <t>'rock'</t>
+  </si>
+  <si>
+    <t>winden</t>
+  </si>
+  <si>
+    <t>windest/windet</t>
+  </si>
+  <si>
+    <t>wand</t>
+  </si>
+  <si>
+    <t>gewunden</t>
+  </si>
+  <si>
+    <t>'wind'</t>
+  </si>
+  <si>
+    <t>winken</t>
+  </si>
+  <si>
+    <t>winkst/winkt</t>
+  </si>
+  <si>
+    <t>winkte</t>
+  </si>
+  <si>
+    <t>gewinkt</t>
+  </si>
+  <si>
+    <t>'wave'</t>
+  </si>
+  <si>
+    <r>
+      <t>Jocularly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>gewunken</t>
+  </si>
+  <si>
+    <t>wissen</t>
+  </si>
+  <si>
+    <t>weiß/weißt/weiß</t>
+  </si>
+  <si>
+    <t>wußte</t>
+  </si>
+  <si>
+    <t>gewußt</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>will/willst/will</t>
+  </si>
+  <si>
+    <t>wollte</t>
+  </si>
+  <si>
+    <t>gewollt</t>
+  </si>
+  <si>
+    <t>'want'</t>
+  </si>
+  <si>
+    <t>wringen</t>
+  </si>
+  <si>
+    <t>wringst/wringt</t>
+  </si>
+  <si>
+    <t>wrang</t>
+  </si>
+  <si>
+    <t>gewrungen</t>
+  </si>
+  <si>
+    <t>'wring'</t>
+  </si>
+  <si>
+    <t>zeihen</t>
+  </si>
+  <si>
+    <t>zeihst/zeiht</t>
+  </si>
+  <si>
+    <t>zieh</t>
+  </si>
+  <si>
+    <t>geziehen</t>
+  </si>
+  <si>
+    <t>'accuse'</t>
+  </si>
+  <si>
+    <t>ziehen (*)</t>
+  </si>
+  <si>
+    <t>ziehst/zieht</t>
+  </si>
+  <si>
+    <t>zog</t>
+  </si>
+  <si>
+    <t>gezogen</t>
+  </si>
+  <si>
+    <t>'pull'</t>
+  </si>
+  <si>
+    <t>zwingen</t>
+  </si>
+  <si>
+    <t>zwingst/zwingt</t>
+  </si>
+  <si>
+    <t>zwang</t>
+  </si>
+  <si>
+    <t>gezwungen</t>
+  </si>
+  <si>
+    <t>'compel'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,13 +3820,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBDBFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -294,11 +3862,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -311,7 +3889,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -385,7 +3963,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -420,7 +3997,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,20 +4172,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +4193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -625,7 +4201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -633,7 +4209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -641,7 +4217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -649,7 +4225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -657,7 +4233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -665,7 +4241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -673,7 +4249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -681,7 +4257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -689,7 +4265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -697,7 +4273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -705,7 +4281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -713,7 +4289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -721,7 +4297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -729,7 +4305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -737,7 +4313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -745,7 +4321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -753,7 +4329,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -761,7 +4337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -769,7 +4345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -777,7 +4353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -785,7 +4361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -793,7 +4369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -801,7 +4377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -809,7 +4385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -817,7 +4393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -825,7 +4401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -833,7 +4409,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -841,7 +4417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -849,7 +4425,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -857,7 +4433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -865,7 +4441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -873,7 +4449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -881,7 +4457,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -889,7 +4465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -897,7 +4473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -905,7 +4481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -913,7 +4489,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -921,7 +4497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -929,7 +4505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -937,7 +4513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -945,7 +4521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -953,7 +4529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -961,7 +4537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -969,7 +4545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -977,7 +4553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -985,7 +4561,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -993,7 +4569,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1001,7 +4577,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1009,7 +4585,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1017,7 +4593,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1025,7 +4601,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1033,7 +4609,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1041,7 +4617,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1049,7 +4625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1057,7 +4633,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1065,7 +4641,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1073,7 +4649,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1081,7 +4657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1089,7 +4665,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1097,7 +4673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1105,7 +4681,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1113,7 +4689,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1121,7 +4697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1129,7 +4705,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1137,7 +4713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1145,7 +4721,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1153,7 +4729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1161,7 +4737,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1169,7 +4745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1177,7 +4753,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1185,7 +4761,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1193,7 +4769,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1201,7 +4777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1209,7 +4785,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1217,7 +4793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1225,7 +4801,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1233,7 +4809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1247,25 +4823,4256 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.5">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30">
+      <c r="A26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30">
+      <c r="A32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30">
+      <c r="A44" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4"/>
+      <c r="B49" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="30">
+      <c r="A50" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30">
+      <c r="A51" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="30">
+      <c r="A54" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30">
+      <c r="A55" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="4"/>
+      <c r="B58" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30">
+      <c r="A60" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30">
+      <c r="A65" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30">
+      <c r="A67" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="4"/>
+      <c r="B75" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30">
+      <c r="A76" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30">
+      <c r="A82" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30">
+      <c r="A83" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30">
+      <c r="A86" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30">
+      <c r="A87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="4"/>
+      <c r="B92" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="30">
+      <c r="A93" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="4"/>
+      <c r="B94" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="4"/>
+      <c r="B100" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="4"/>
+      <c r="B102" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30">
+      <c r="A104" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30">
+      <c r="A107" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="4"/>
+      <c r="B108" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" ht="30">
+      <c r="A109" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30">
+      <c r="A111" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30">
+      <c r="A113" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30">
+      <c r="A114" s="4"/>
+      <c r="B114" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" ht="30">
+      <c r="A115" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="4"/>
+      <c r="B117" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30">
+      <c r="A125" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="4"/>
+      <c r="B126" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" ht="30">
+      <c r="A132" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="30">
+      <c r="A133" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="30">
+      <c r="A136" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="4"/>
+      <c r="B140" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="4"/>
+      <c r="B143" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="4"/>
+      <c r="B156" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="30">
+      <c r="A157" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="30">
+      <c r="A159" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="30">
+      <c r="A160" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="30">
+      <c r="A161" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="30">
+      <c r="A162" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="30">
+      <c r="A163" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="30">
+      <c r="A164" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="30">
+      <c r="A165" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="30">
+      <c r="A166" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="30">
+      <c r="A167" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="4"/>
+      <c r="B168" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" ht="30">
+      <c r="A169" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="30">
+      <c r="A170" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="30">
+      <c r="A171" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="30">
+      <c r="A172" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="30">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="30">
+      <c r="A174" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="30">
+      <c r="A175" s="4"/>
+      <c r="B175" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" ht="30">
+      <c r="A176" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="30">
+      <c r="A177" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="30">
+      <c r="A178" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="30">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="30">
+      <c r="A180" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="30">
+      <c r="A181" s="4"/>
+      <c r="B181" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" ht="30">
+      <c r="A182" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="30">
+      <c r="A183" s="4"/>
+      <c r="B183" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" ht="30">
+      <c r="A184" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="30">
+      <c r="A185" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="30">
+      <c r="A187" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="30">
+      <c r="A188" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="30">
+      <c r="A189" s="4"/>
+      <c r="B189" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" ht="30">
+      <c r="A190" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="30">
+      <c r="A191" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="30">
+      <c r="A192" s="4"/>
+      <c r="B192" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" ht="30">
+      <c r="A193" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="30">
+      <c r="A194" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="30">
+      <c r="A195" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="30">
+      <c r="A196" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="4"/>
+      <c r="B201" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="4"/>
+      <c r="B203" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="30">
+      <c r="A210" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="30">
+      <c r="A211" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="30">
+      <c r="A212" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="30">
+      <c r="A213" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="30">
+      <c r="A214" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="4"/>
+      <c r="B216" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="30">
+      <c r="A217" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="4"/>
+      <c r="B222" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" ht="30">
+      <c r="A223" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="30">
+      <c r="A225" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="4"/>
+      <c r="B232" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" ht="30">
+      <c r="A233" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="30">
+      <c r="A236" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="30">
+      <c r="A237" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="30">
+      <c r="A238" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="30">
+      <c r="A240" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="30">
+      <c r="A241" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="4"/>
+      <c r="B243" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:5" ht="30">
+      <c r="A244" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="4"/>
+      <c r="B246" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="30">
+      <c r="A252" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="30">
+      <c r="A253" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="30">
+      <c r="A257" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="30">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E259" s="2"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="30">
+      <c r="A262" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="30">
+      <c r="A265" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="120">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>